--- a/Project Euler 008.xlsx
+++ b/Project Euler 008.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noccis\Dropbox\1-projets\excel-problem-solving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0463763-2BA0-46D8-83E6-9161BD9AACE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB64CC71-1F81-4595-81BE-15AE8093C7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF02B362-F5C1-4311-801A-9D6097CB1450}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>1000-digit number as string :</t>
   </si>
@@ -144,11 +144,11 @@
     <t>What is the value of this product?</t>
   </si>
   <si>
-    <t>3) Using spreadsheets capabilities:</t>
+    <t>https://projecteuler.net/problem=8</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1) As an one-liner with array-formulas (1/2) </t>
+      <t xml:space="preserve">1) One-liner based on array-formulas (1/2) </t>
     </r>
     <r>
       <rPr>
@@ -165,7 +165,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2) As an one-liner with array-formulas (2/2) </t>
+      <t xml:space="preserve">2) One-liner based on array-formulas (2/2) </t>
     </r>
     <r>
       <rPr>
@@ -181,7 +181,10 @@
     </r>
   </si>
   <si>
-    <t>https://projecteuler.net/problem=8</t>
+    <t>3) Use of spreadsheets capabilities</t>
+  </si>
+  <si>
+    <t>(end)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -336,7 +339,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -676,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC465808-EAC3-4399-BA76-252205918052}">
-  <dimension ref="B2:T1054"/>
+  <dimension ref="B2:T1056"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -701,45 +703,45 @@
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
-        <v>31</v>
+      <c r="B4" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="12" spans="2:3" ht="16" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
@@ -768,10 +770,10 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B21" s="15">
-        <v>4</v>
-      </c>
-      <c r="C21" s="14" cm="1">
+      <c r="B21" s="14">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" cm="1">
         <f t="array" ref="C21">_xlfn.LET(
 _xlpm.input_string, $B$19,
 _xlpm.thirteen, $B21,
@@ -781,7 +783,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>13</v>
       </c>
       <c r="C22" s="5" cm="1">
@@ -820,10 +822,10 @@
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B29" s="15">
-        <v>4</v>
-      </c>
-      <c r="C29" s="14" cm="1">
+      <c r="B29" s="14">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" cm="1">
         <f t="array" ref="C29">_xlfn.LET(
 _xlpm.input_string, $B$19,
 _xlpm.thirteen, $B29,
@@ -833,7 +835,7 @@
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>13</v>
       </c>
       <c r="C30" s="5" cm="1">
@@ -857,7 +859,7 @@
     </row>
     <row r="32" spans="2:20" ht="16" x14ac:dyDescent="0.4">
       <c r="B32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.35">
@@ -66318,6 +66320,11 @@
       <c r="B1054" s="2" t="str">
         <f>"71636269561882670428252483600823257530420752963450"</f>
         <v>71636269561882670428252483600823257530420752963450</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1056" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
